--- a/LAB01/AlgoTimes.xlsx
+++ b/LAB01/AlgoTimes.xlsx
@@ -5,74 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydendonofrio/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydendonofrio/CLionProjects/CSE3353/LAB01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470DC7B-14AF-5A4F-933C-3500DD87BF28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0CA38-8100-FE42-9D29-1041052AFE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14280" xr2:uid="{1FD7F43E-0A49-C445-A31D-56D5DCD8F49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$K$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$K$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$K$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$K$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$K$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$K$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$K$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$8</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5383,9 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478A820E-E74A-D649-8F33-247FB0AAD09E}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
